--- a/experiment_results/best_case/BankAccountTP/1wise/1_best_case.xlsx
+++ b/experiment_results/best_case/BankAccountTP/1wise/1_best_case.xlsx
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -723,7 +723,7 @@
         <v>47</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>76</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -1120,7 +1120,7 @@
         <v>47</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>76</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>73</v>
@@ -1517,7 +1517,7 @@
         <v>47</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>76</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -1914,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>76</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -2311,7 +2311,7 @@
         <v>47</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>76</v>
